--- a/Banco Central/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
+++ b/Banco Central/11/1/4/Índice de producción industrial 2000 a 2021 - Anual.xlsx
@@ -591,7 +591,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="C11">
-        <v>88.16</v>
+        <v>88.17</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -625,7 +625,7 @@
         <v>93.25</v>
       </c>
       <c r="C13">
-        <v>93.2</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="D13">
         <v>105.85</v>
@@ -645,7 +645,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="C14">
-        <v>96.41</v>
+        <v>96.42</v>
       </c>
       <c r="D14">
         <v>109.45</v>
@@ -665,7 +665,7 @@
         <v>99.67</v>
       </c>
       <c r="C15">
-        <v>99.94</v>
+        <v>99.95</v>
       </c>
       <c r="D15">
         <v>113.14</v>
@@ -685,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
       <c r="D16">
         <v>113.51</v>
@@ -725,7 +725,7 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C18">
-        <v>99.2</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="D18">
         <v>111.23</v>
@@ -745,7 +745,7 @@
         <v>98.48999999999999</v>
       </c>
       <c r="C19">
-        <v>98.58</v>
+        <v>98.56</v>
       </c>
       <c r="E19">
         <v>96.7</v>
@@ -762,7 +762,7 @@
         <v>101.95</v>
       </c>
       <c r="C20">
-        <v>102.19</v>
+        <v>102.18</v>
       </c>
       <c r="E20">
         <v>99.34</v>
@@ -787,10 +787,10 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>100.28</v>
+        <v>100.27</v>
       </c>
       <c r="C22">
-        <v>99.95</v>
+        <v>99.94</v>
       </c>
       <c r="E22">
         <v>98.26000000000001</v>
